--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="480" windowWidth="25600" windowHeight="18300" tabRatio="500"/>
+    <workbookView xWindow="4600" yWindow="400" windowWidth="25600" windowHeight="18300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宝石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>木材</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,22 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CNY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EURO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>YEN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -116,6 +96,63 @@
   <si>
     <t>资源类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Reference Name</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>宝石</t>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle.international.usd499</t>
+  </si>
+  <si>
+    <t>DINO_GEM_USD_499 </t>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle.international.usd999</t>
+  </si>
+  <si>
+    <t>DINO_GEM_USD_999 </t>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle.international.usd1999</t>
+  </si>
+  <si>
+    <t>DINO_GEM_USD_1999 </t>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle.international.usd4999</t>
+  </si>
+  <si>
+    <t>DINO_GEM_USD_4999 </t>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle.international.usd9999</t>
+  </si>
+  <si>
+    <t>DINO_GEM_USD_9999 </t>
   </si>
 </sst>
 </file>
@@ -125,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +213,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF595959"/>
+      <name val="Lucida Grande"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +268,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,6 +282,20 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
@@ -580,176 +646,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="21">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3">
         <v>1001</v>
       </c>
-      <c r="D2" s="1">
-        <v>200</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8">
         <v>4.99</v>
       </c>
-      <c r="F2" s="4">
+      <c r="H2" s="9">
         <v>30</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="K2">
+        <f>D2/G2</f>
+        <v>20.040080160320642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
         <v>1002</v>
       </c>
-      <c r="D3" s="1">
-        <v>550</v>
-      </c>
-      <c r="E3" s="4">
-        <v>11.99</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="3">
+        <v>240</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8">
+        <v>9.99</v>
+      </c>
+      <c r="H3" s="9">
         <v>68</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="0">D3/G3</f>
+        <v>24.024024024024023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
         <v>1003</v>
       </c>
-      <c r="D4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E4" s="4">
-        <v>20.99</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4" s="3">
+        <v>500</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H4" s="9">
         <v>128</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>25.012506253126567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
         <v>1004</v>
       </c>
-      <c r="D5" s="1">
-        <v>2600</v>
-      </c>
-      <c r="E5" s="4">
-        <v>54.99</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="D5" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="8">
+        <v>49.99</v>
+      </c>
+      <c r="H5" s="9">
         <v>328</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>26.005201040208039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
         <v>1005</v>
       </c>
-      <c r="D6" s="1">
-        <v>7000</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="8">
         <v>99.99</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="9">
         <v>648</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>28.002800280028005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -757,7 +865,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -765,7 +873,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -773,7 +881,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -781,7 +889,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -789,7 +897,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -797,7 +905,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -805,7 +913,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -813,7 +921,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -821,7 +929,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1161,15 +1269,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>2001</v>
@@ -1186,10 +1294,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>2002</v>
@@ -1206,10 +1314,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>2003</v>
@@ -1226,10 +1334,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>3001</v>
@@ -1246,10 +1354,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>3002</v>
@@ -1266,10 +1374,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>3003</v>
@@ -1286,10 +1394,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>3004</v>
@@ -1306,10 +1414,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>3005</v>
@@ -1326,10 +1434,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>3006</v>
@@ -1387,18 +1495,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>4001</v>
@@ -1418,10 +1526,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>4002</v>
@@ -1441,10 +1549,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>5001</v>
@@ -1464,10 +1572,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>5002</v>
@@ -1487,10 +1595,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>6001</v>
@@ -1510,10 +1618,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>6002</v>
@@ -1533,10 +1641,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>6003</v>
@@ -1556,10 +1664,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>6004</v>
@@ -1579,10 +1687,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>6005</v>
@@ -1602,10 +1710,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>6006</v>
@@ -1625,10 +1733,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>6007</v>
@@ -1648,10 +1756,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>6008</v>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="400" windowWidth="25600" windowHeight="18300" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="20" windowWidth="25600" windowHeight="18300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,6 +153,14 @@
   </si>
   <si>
     <t>DINO_GEM_USD_9999 </t>
+  </si>
+  <si>
+    <t>宝石/$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石/￥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -246,7 +254,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -267,8 +275,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,8 +336,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="52">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -308,6 +349,22 @@
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -317,6 +374,22 @@
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -646,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -665,7 +738,7 @@
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="21">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -696,8 +769,14 @@
       <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16">
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -708,7 +787,7 @@
         <v>1001</v>
       </c>
       <c r="D2" s="3">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>28</v>
@@ -724,12 +803,16 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2">
+      <c r="K2" s="11">
         <f>D2/G2</f>
-        <v>20.040080160320642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16">
+        <v>51.102204408817634</v>
+      </c>
+      <c r="L2" s="11">
+        <f>D2/H2</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -740,7 +823,7 @@
         <v>1002</v>
       </c>
       <c r="D3" s="3">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -756,12 +839,16 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3">
+      <c r="K3" s="11">
         <f t="shared" ref="K3:K6" si="0">D3/G3</f>
-        <v>24.024024024024023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16">
+        <v>60.06006006006006</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" ref="L3:L6" si="1">D3/H3</f>
+        <v>8.8235294117647065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -772,7 +859,7 @@
         <v>1003</v>
       </c>
       <c r="D4" s="3">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
@@ -788,12 +875,16 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4">
+      <c r="K4" s="11">
         <f t="shared" si="0"/>
-        <v>25.012506253126567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16">
+        <v>62.531265632816414</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="1"/>
+        <v>9.765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -804,7 +895,7 @@
         <v>1004</v>
       </c>
       <c r="D5" s="3">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>34</v>
@@ -820,12 +911,16 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5">
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
-        <v>26.005201040208039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16">
+        <v>66.013202640528107</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="1"/>
+        <v>10.060975609756097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -836,7 +931,7 @@
         <v>1005</v>
       </c>
       <c r="D6" s="3">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>36</v>
@@ -852,12 +947,16 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6">
+      <c r="K6" s="11">
         <f t="shared" si="0"/>
-        <v>28.002800280028005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>70.007000700070009</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="1"/>
+        <v>10.802469135802468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -865,7 +964,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -873,7 +972,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -881,7 +980,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -889,7 +988,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -897,7 +996,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -905,7 +1004,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -913,7 +1012,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -921,7 +1020,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -929,7 +1028,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="20" windowWidth="25600" windowHeight="18300" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="20" windowWidth="25600" windowHeight="18300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1402,7 +1402,7 @@
         <v>2002</v>
       </c>
       <c r="D3" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -1422,7 +1422,7 @@
         <v>2003</v>
       </c>
       <c r="D4" s="1">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="20" windowWidth="25600" windowHeight="18300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2200" yWindow="280" windowWidth="25600" windowHeight="18300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,6 +160,22 @@
   </si>
   <si>
     <t>宝石/￥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP大礼包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -254,9 +270,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -338,7 +356,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="54">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -365,6 +383,7 @@
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -390,6 +409,7 @@
     <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1340,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1565,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1591,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -1874,6 +1894,98 @@
       </c>
       <c r="G13" s="3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>888</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="280" windowWidth="25600" windowHeight="18300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="615" yWindow="15" windowWidth="19320" windowHeight="11640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
     <sheet name="资源" sheetId="3" r:id="rId2"/>
     <sheet name="道具" sheetId="4" r:id="rId3"/>
+    <sheet name="其他" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
   <si>
     <t>商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,19 +164,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特殊道具</t>
+    <t>VIP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VIP大礼包</t>
+    <t>奖券I</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>保护期</t>
+    <t>奖券II</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
+    <t>奖券III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,11 +275,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -356,8 +359,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="52">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -383,37 +387,39 @@
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -745,20 +751,20 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1"/>
     <col min="5" max="5" width="43.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.875" style="1"/>
     <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="21">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -796,7 +802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -832,7 +838,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -868,7 +874,7 @@
         <v>8.8235294117647065</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -904,7 +910,7 @@
         <v>9.765625</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -940,7 +946,7 @@
         <v>10.060975609756097</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1360,18 +1366,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.875" style="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:6" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>2002</v>
       </c>
       <c r="D3" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -1442,7 +1448,7 @@
         <v>2003</v>
       </c>
       <c r="D4" s="1">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -1585,19 +1591,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -1640,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1663,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1671,22 +1677,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>5001</v>
+        <v>4003</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1697,305 +1703,821 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
         <v>5002</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5006</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5007</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5008</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5009</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5010</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5011</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5012</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5013</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5014</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5015</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5016</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5017</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5018</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>20</v>
       </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
-        <v>6001</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C24" s="3">
+        <v>6002</v>
+      </c>
+      <c r="D24" s="3">
         <v>100</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
-        <v>6002</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C25" s="3">
+        <v>6003</v>
+      </c>
+      <c r="D25" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6004</v>
+      </c>
+      <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3">
-        <v>6003</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C27" s="3">
+        <v>6005</v>
+      </c>
+      <c r="D27" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
-        <v>6004</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C28" s="3">
+        <v>6006</v>
+      </c>
+      <c r="D28" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
+      <c r="G28" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
-        <v>6005</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C29" s="3">
+        <v>6007</v>
+      </c>
+      <c r="D29" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
-        <v>6006</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C30" s="3">
+        <v>6008</v>
+      </c>
+      <c r="D30" s="3">
         <v>100</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6007</v>
-      </c>
-      <c r="D12" s="3">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6008</v>
-      </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="G30" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>888</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8002</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>150</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8003</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>200</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="3" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="15" windowWidth="19320" windowHeight="11640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="620" yWindow="20" windowWidth="19320" windowHeight="11640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="道具" sheetId="4" r:id="rId3"/>
     <sheet name="其他" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
   <si>
     <t>商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,6 +182,41 @@
   <si>
     <t>保护</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源/Gem</t>
   </si>
 </sst>
 </file>
@@ -191,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +292,15 @@
       <name val="Lucida Grande"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,12 +310,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -329,7 +388,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,10 +417,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -387,31 +466,32 @@
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -751,20 +831,20 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1"/>
+    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1"/>
     <col min="5" max="5" width="43.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1"/>
+    <col min="9" max="9" width="11" style="1"/>
     <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="21">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -802,7 +882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -838,7 +918,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -874,7 +954,7 @@
         <v>8.8235294117647065</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -910,7 +990,7 @@
         <v>9.765625</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -946,7 +1026,7 @@
         <v>10.060975609756097</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1364,20 +1444,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1396,8 +1477,11 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1407,17 +1491,20 @@
       <c r="C2" s="1">
         <v>2001</v>
       </c>
-      <c r="D2" s="1">
-        <v>500</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+      <c r="D2" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>250</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1427,17 +1514,20 @@
       <c r="C3" s="1">
         <v>2002</v>
       </c>
-      <c r="D3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
+      <c r="D3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>340</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1447,17 +1537,20 @@
       <c r="C4" s="1">
         <v>2003</v>
       </c>
-      <c r="D4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>600</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1467,17 +1560,20 @@
       <c r="C5" s="1">
         <v>3001</v>
       </c>
-      <c r="D5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="D5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>250</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1487,17 +1583,20 @@
       <c r="C6" s="1">
         <v>3002</v>
       </c>
-      <c r="D6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
+      <c r="D6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="13">
+        <v>340</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1507,17 +1606,20 @@
       <c r="C7" s="1">
         <v>3003</v>
       </c>
-      <c r="D7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>600</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1527,17 +1629,20 @@
       <c r="C8" s="1">
         <v>3004</v>
       </c>
-      <c r="D8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
+      <c r="D8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="13">
+        <v>250</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1547,17 +1652,20 @@
       <c r="C9" s="1">
         <v>3005</v>
       </c>
-      <c r="D9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
+      <c r="D9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="13">
+        <v>340</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1567,14 +1675,17 @@
       <c r="C10" s="1">
         <v>3006</v>
       </c>
-      <c r="D10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>600</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1591,19 +1702,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.875" style="1"/>
+    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
+    <row r="1" spans="1:13" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1625,8 +1736,26 @@
       <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1639,8 +1768,8 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>50</v>
+      <c r="E2" s="13">
+        <v>100</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1648,8 +1777,26 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0.39</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0.1099</v>
+      </c>
+      <c r="M2" s="18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1662,8 +1809,8 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>110</v>
+      <c r="E3" s="13">
+        <v>200</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1671,31 +1818,49 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="18">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="M3" s="18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>4003</v>
+        <v>5001</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>170</v>
+      <c r="E4" s="13">
+        <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1703,22 +1868,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="E5" s="13">
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1726,22 +1897,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
+      <c r="E6" s="13">
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1749,22 +1926,28 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="E7" s="13">
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1772,22 +1955,28 @@
         <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>5004</v>
+        <v>5005</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
+      <c r="E8" s="13">
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1795,501 +1984,220 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
+      <c r="E9" s="13">
+        <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="13">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6002</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200</v>
+      </c>
+      <c r="E11" s="13">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6003</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="13">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6004</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6005</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="13">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5006</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6006</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="13">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5007</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6007</v>
+      </c>
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="13">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5008</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5009</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5010</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5011</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5012</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5013</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5014</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5015</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5016</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5017</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5018</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3">
-        <v>6001</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C17" s="3">
+        <v>6008</v>
+      </c>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="13">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6002</v>
-      </c>
-      <c r="D24" s="3">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6003</v>
-      </c>
-      <c r="D25" s="3">
-        <v>100</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6004</v>
-      </c>
-      <c r="D26" s="3">
-        <v>100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3">
-        <v>6005</v>
-      </c>
-      <c r="D27" s="3">
-        <v>100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6006</v>
-      </c>
-      <c r="D28" s="3">
-        <v>100</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3">
-        <v>6007</v>
-      </c>
-      <c r="D29" s="3">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6008</v>
-      </c>
-      <c r="D30" s="3">
-        <v>100</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="G17" s="3">
         <v>8</v>
       </c>
     </row>
@@ -2310,15 +2218,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="F2" s="1">
         <v>4</v>
@@ -2377,8 +2285,8 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
+      <c r="E3" s="13">
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -2400,8 +2308,8 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>3</v>
+      <c r="E4" s="13">
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>6</v>
@@ -2423,8 +2331,8 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>4</v>
+      <c r="E5" s="13">
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -2446,8 +2354,8 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
-        <v>5</v>
+      <c r="E6" s="13">
+        <v>50</v>
       </c>
       <c r="F6" s="3">
         <v>6</v>
@@ -2519,5 +2427,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="20" windowWidth="19320" windowHeight="11640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4320" yWindow="540" windowWidth="19320" windowHeight="11640" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="道具" sheetId="4" r:id="rId3"/>
     <sheet name="其他" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -217,6 +217,54 @@
   </si>
   <si>
     <t>资源/Gem</t>
+  </si>
+  <si>
+    <t>中文描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日一次免费抽奖；保护时间增加一倍；可以跳过擂台动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更好的奖品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取奖品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后立即进入6h保护期\n(每日限用1次)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 FREE lottery per day\ndouble protection time\ncan skip battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get into protection for 6h(once per day)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw your lucky</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好的奖品(甚至霸王龙)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -226,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,6 +489,7 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -466,32 +515,31 @@
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -828,12 +876,12 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1"/>
     <col min="5" max="5" width="43.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
@@ -844,7 +892,7 @@
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="21">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -882,7 +930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -918,7 +966,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -954,7 +1002,7 @@
         <v>8.8235294117647065</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -990,7 +1038,7 @@
         <v>9.765625</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1026,7 +1074,7 @@
         <v>10.060975609756097</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1446,19 +1494,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1704,17 +1752,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:13" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2215,18 +2263,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2248,8 +2298,14 @@
       <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2271,8 +2327,14 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2294,8 +2356,14 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2317,8 +2385,14 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2340,8 +2414,14 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2363,8 +2443,14 @@
       <c r="G6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2372,7 +2458,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2380,7 +2466,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2388,7 +2474,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2397,7 +2483,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2406,7 +2492,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2415,7 +2501,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="540" windowWidth="19320" windowHeight="11640" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19320" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="道具" sheetId="4" r:id="rId3"/>
     <sheet name="其他" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -126,36 +126,6 @@
     <t>宝石</t>
   </si>
   <si>
-    <t>com.gaofei.dinostyle.international.usd499</t>
-  </si>
-  <si>
-    <t>DINO_GEM_USD_499 </t>
-  </si>
-  <si>
-    <t>com.gaofei.dinostyle.international.usd999</t>
-  </si>
-  <si>
-    <t>DINO_GEM_USD_999 </t>
-  </si>
-  <si>
-    <t>com.gaofei.dinostyle.international.usd1999</t>
-  </si>
-  <si>
-    <t>DINO_GEM_USD_1999 </t>
-  </si>
-  <si>
-    <t>com.gaofei.dinostyle.international.usd4999</t>
-  </si>
-  <si>
-    <t>DINO_GEM_USD_4999 </t>
-  </si>
-  <si>
-    <t>com.gaofei.dinostyle.international.usd9999</t>
-  </si>
-  <si>
-    <t>DINO_GEM_USD_9999 </t>
-  </si>
-  <si>
     <t>宝石/$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每日一次免费抽奖；保护时间增加一倍；可以跳过擂台动画</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>更好的奖品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -239,14 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>使用后立即进入6h保护期\n(每日限用1次)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 FREE lottery per day\ndouble protection time\ncan skip battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Get into protection for 6h(once per day)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,6 +222,56 @@
   </si>
   <si>
     <t>最好的奖品(甚至霸王龙)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 FREE lottery per day ；double protection time；can skip battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后立即进入6h保护期（每日限用1次)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日一次免费抽奖；保护时间增加一倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DINO_STYLE_GEM_USD_4999</t>
+  </si>
+  <si>
+    <t>com.dinosaur.gems.usd4999</t>
+  </si>
+  <si>
+    <t>com.dinosaur.gems.usd999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dinosaur.gems.usd1999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dinosaur.gems.usd9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DINO_STYLE_GEM_USD_9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DINO_STYLE_GEM_USD_1999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DINO_STYLE_GEM_USD_999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DINO_STYLE_GEM_USD_499</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dinosaur.gems.usd499</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,6 +357,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -382,7 +397,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,8 +450,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,17 +470,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,10 +498,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="54">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -515,31 +527,34 @@
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -875,16 +890,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1"/>
     <col min="5" max="5" width="43.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1"/>
@@ -892,7 +907,7 @@
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="22.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="21">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -924,13 +939,13 @@
         <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -943,30 +958,30 @@
       <c r="D2" s="3">
         <v>255</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="E2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6">
         <v>4.99</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>30</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <f>D2/G2</f>
         <v>51.102204408817634</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <f>D2/H2</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -979,30 +994,30 @@
       <c r="D3" s="3">
         <v>600</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="E3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6">
         <v>9.99</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>68</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <f t="shared" ref="K3:K6" si="0">D3/G3</f>
         <v>60.06006006006006</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <f t="shared" ref="L3:L6" si="1">D3/H3</f>
         <v>8.8235294117647065</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1015,30 +1030,30 @@
       <c r="D4" s="3">
         <v>1250</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="E4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="6">
         <v>19.989999999999998</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>128</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <f t="shared" si="0"/>
         <v>62.531265632816414</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <f t="shared" si="1"/>
         <v>9.765625</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1051,30 +1066,30 @@
       <c r="D5" s="3">
         <v>3300</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="E5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="6">
         <v>49.99</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>328</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>66.013202640528107</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="8">
         <f t="shared" si="1"/>
         <v>10.060975609756097</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1087,25 +1102,25 @@
       <c r="D6" s="3">
         <v>7000</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="E6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="6">
         <v>99.99</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>648</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="11">
+      <c r="K6" s="8">
         <f t="shared" si="0"/>
         <v>70.007000700070009</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="8">
         <f t="shared" si="1"/>
         <v>10.802469135802468</v>
       </c>
@@ -1498,15 +1513,15 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1541,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1539,10 +1554,10 @@
       <c r="C2" s="1">
         <v>2001</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>0.3</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>250</v>
       </c>
       <c r="F2" s="1">
@@ -1562,10 +1577,10 @@
       <c r="C3" s="1">
         <v>2002</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>0.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>340</v>
       </c>
       <c r="F3" s="1">
@@ -1585,10 +1600,10 @@
       <c r="C4" s="1">
         <v>2003</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
         <v>600</v>
       </c>
       <c r="F4" s="1">
@@ -1608,10 +1623,10 @@
       <c r="C5" s="1">
         <v>3001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>0.3</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>250</v>
       </c>
       <c r="F5" s="1">
@@ -1631,10 +1646,10 @@
       <c r="C6" s="1">
         <v>3002</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>0.5</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>340</v>
       </c>
       <c r="F6" s="1">
@@ -1654,10 +1669,10 @@
       <c r="C7" s="1">
         <v>3003</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
         <v>600</v>
       </c>
       <c r="F7" s="1">
@@ -1677,10 +1692,10 @@
       <c r="C8" s="1">
         <v>3004</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>0.3</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>250</v>
       </c>
       <c r="F8" s="1">
@@ -1700,10 +1715,10 @@
       <c r="C9" s="1">
         <v>3005</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>0.5</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>340</v>
       </c>
       <c r="F9" s="1">
@@ -1723,10 +1738,10 @@
       <c r="C10" s="1">
         <v>3006</v>
       </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
         <v>600</v>
       </c>
       <c r="F10" s="1">
@@ -1756,13 +1771,13 @@
       <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5">
+    <row r="1" spans="1:13" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1784,23 +1799,23 @@
       <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>50</v>
+      <c r="H1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1816,7 +1831,7 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>100</v>
       </c>
       <c r="F2" s="1">
@@ -1825,22 +1840,22 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="17">
+      <c r="H2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="14">
         <v>0.3</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="14">
         <v>0.39</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="14">
         <v>0.2</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="15">
         <v>0.1099</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="15">
         <v>1E-3</v>
       </c>
     </row>
@@ -1857,7 +1872,7 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>200</v>
       </c>
       <c r="F3" s="1">
@@ -1866,22 +1881,22 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="17">
+      <c r="H3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="14">
         <v>0</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>0.6</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="14">
         <v>0.3</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="15">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="15">
         <v>1E-3</v>
       </c>
     </row>
@@ -1898,7 +1913,7 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>30</v>
       </c>
       <c r="F4" s="1">
@@ -1921,7 +1936,7 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>30</v>
       </c>
       <c r="F5" s="1">
@@ -1930,12 +1945,12 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
@@ -1950,7 +1965,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>30</v>
       </c>
       <c r="F6" s="1">
@@ -1959,12 +1974,12 @@
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -1979,7 +1994,7 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>30</v>
       </c>
       <c r="F7" s="1">
@@ -1988,12 +2003,12 @@
       <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
@@ -2008,7 +2023,7 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>30</v>
       </c>
       <c r="F8" s="1">
@@ -2017,12 +2032,12 @@
       <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
@@ -2037,7 +2052,7 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>30</v>
       </c>
       <c r="F9" s="1">
@@ -2046,12 +2061,12 @@
       <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
@@ -2066,7 +2081,7 @@
       <c r="D10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>100</v>
       </c>
       <c r="F10" s="3">
@@ -2075,12 +2090,12 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
@@ -2095,7 +2110,7 @@
       <c r="D11" s="3">
         <v>200</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>100</v>
       </c>
       <c r="F11" s="3">
@@ -2104,12 +2119,12 @@
       <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
@@ -2124,7 +2139,7 @@
       <c r="D12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>100</v>
       </c>
       <c r="F12" s="3">
@@ -2147,7 +2162,7 @@
       <c r="D13" s="3">
         <v>200</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>100</v>
       </c>
       <c r="F13" s="3">
@@ -2170,7 +2185,7 @@
       <c r="D14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>100</v>
       </c>
       <c r="F14" s="3">
@@ -2193,7 +2208,7 @@
       <c r="D15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>100</v>
       </c>
       <c r="F15" s="3">
@@ -2216,7 +2231,7 @@
       <c r="D16" s="3">
         <v>200</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>100</v>
       </c>
       <c r="F16" s="3">
@@ -2239,7 +2254,7 @@
       <c r="D17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>100</v>
       </c>
       <c r="F17" s="3">
@@ -2265,18 +2280,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2299,10 +2314,10 @@
         <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2310,7 +2325,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
         <v>7001</v>
@@ -2327,11 +2342,11 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>60</v>
+      <c r="H2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2339,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>8001</v>
@@ -2347,7 +2362,7 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>20</v>
       </c>
       <c r="F3" s="1">
@@ -2356,11 +2371,11 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>59</v>
+      <c r="H3" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2368,7 +2383,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>9001</v>
@@ -2376,7 +2391,7 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>15</v>
       </c>
       <c r="F4" s="1">
@@ -2385,11 +2400,11 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>58</v>
+      <c r="H4" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2397,7 +2412,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <v>9002</v>
@@ -2405,7 +2420,7 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>30</v>
       </c>
       <c r="F5" s="1">
@@ -2414,11 +2429,11 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>57</v>
+      <c r="H5" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2426,7 +2441,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3">
         <v>9003</v>
@@ -2434,7 +2449,7 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>50</v>
       </c>
       <c r="F6" s="3">
@@ -2443,11 +2458,11 @@
       <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>65</v>
+      <c r="H6" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="19320" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="31540" windowHeight="17360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>更好的奖品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>抽取奖品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -213,30 +209,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Better award</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best award</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好的奖品(甚至霸王龙)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 FREE lottery per day ；double protection time；can skip battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用后立即进入6h保护期（每日限用1次)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每日一次免费抽奖；保护时间增加一倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DINO_STYLE_GEM_USD_4999</t>
   </si>
   <si>
@@ -272,6 +248,30 @@
   </si>
   <si>
     <t>com.dinosaur.gems.usd499</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取更好的奖品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取最好的奖品(甚至霸王龙)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get luckiest award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get better award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登录即获得一张抽奖券；保护时间加倍；持续一月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 FREE lottery per day, double protection time for a month</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -959,10 +959,10 @@
         <v>255</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G2" s="6">
         <v>4.99</v>
@@ -995,10 +995,10 @@
         <v>600</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G3" s="6">
         <v>9.99</v>
@@ -1031,10 +1031,10 @@
         <v>1250</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G4" s="6">
         <v>19.989999999999998</v>
@@ -1067,10 +1067,10 @@
         <v>3300</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G5" s="6">
         <v>49.99</v>
@@ -1103,10 +1103,10 @@
         <v>7000</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G6" s="6">
         <v>99.99</v>
@@ -2280,14 +2280,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2343,10 +2343,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2372,10 +2372,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2401,10 +2401,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2430,10 +2430,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2459,10 +2459,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="31540" windowHeight="17360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="3480" yWindow="580" windowWidth="31540" windowHeight="17360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -272,6 +272,78 @@
   </si>
   <si>
     <t>1 FREE lottery per day, double protection time for a month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得一个品质的恐龙蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得一个高品质的恐龙蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get a dinosaur egg by random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get a high quality egg by random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙的速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙的防御力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙的HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加宝物的掉率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加经验获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙的攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase dinosaurs' speed in battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase dinosaurs' attack in battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase dinosaurs' defense in battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase dinosaurs' HP in battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase experience in battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase treasure dropping in battle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -279,8 +351,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -397,7 +470,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,8 +525,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,8 +578,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="60">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -528,6 +608,9 @@
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -554,6 +637,9 @@
     <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -891,7 +977,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M2" sqref="M2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -955,8 +1041,8 @@
       <c r="C2" s="3">
         <v>1001</v>
       </c>
-      <c r="D2" s="3">
-        <v>255</v>
+      <c r="D2">
+        <v>400</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>59</v>
@@ -974,11 +1060,11 @@
       <c r="J2" s="4"/>
       <c r="K2" s="8">
         <f>D2/G2</f>
-        <v>51.102204408817634</v>
+        <v>80.160320641282567</v>
       </c>
       <c r="L2" s="8">
         <f>D2/H2</f>
-        <v>8.5</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16">
@@ -991,8 +1077,8 @@
       <c r="C3" s="3">
         <v>1002</v>
       </c>
-      <c r="D3" s="3">
-        <v>600</v>
+      <c r="D3">
+        <v>900</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>52</v>
@@ -1010,11 +1096,11 @@
       <c r="J3" s="4"/>
       <c r="K3" s="8">
         <f t="shared" ref="K3:K6" si="0">D3/G3</f>
-        <v>60.06006006006006</v>
+        <v>90.090090090090087</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" ref="L3:L6" si="1">D3/H3</f>
-        <v>8.8235294117647065</v>
+        <v>13.235294117647058</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16">
@@ -1027,8 +1113,8 @@
       <c r="C4" s="3">
         <v>1003</v>
       </c>
-      <c r="D4" s="3">
-        <v>1250</v>
+      <c r="D4">
+        <v>2000</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>53</v>
@@ -1046,11 +1132,11 @@
       <c r="J4" s="4"/>
       <c r="K4" s="8">
         <f t="shared" si="0"/>
-        <v>62.531265632816414</v>
+        <v>100.05002501250627</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="1"/>
-        <v>9.765625</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16">
@@ -1063,8 +1149,8 @@
       <c r="C5" s="3">
         <v>1004</v>
       </c>
-      <c r="D5" s="3">
-        <v>3300</v>
+      <c r="D5">
+        <v>5000</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>51</v>
@@ -1082,11 +1168,11 @@
       <c r="J5" s="4"/>
       <c r="K5" s="8">
         <f t="shared" si="0"/>
-        <v>66.013202640528107</v>
+        <v>100.02000400080016</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="1"/>
-        <v>10.060975609756097</v>
+        <v>15.24390243902439</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16">
@@ -1099,8 +1185,8 @@
       <c r="C6" s="3">
         <v>1005</v>
       </c>
-      <c r="D6" s="3">
-        <v>7000</v>
+      <c r="D6">
+        <v>12000</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>54</v>
@@ -1118,11 +1204,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="8">
         <f t="shared" si="0"/>
-        <v>70.007000700070009</v>
+        <v>120.01200120012003</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="1"/>
-        <v>10.802469135802468</v>
+        <v>18.518518518518519</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1507,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H2" sqref="H2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1521,7 +1607,7 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1563,11 +1649,13 @@
       <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="17">
+        <v>120</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1586,11 +1674,13 @@
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="17">
+        <v>150</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1609,11 +1699,13 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="17">
+        <v>187.5</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1632,11 +1724,13 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="17">
+        <v>240</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1655,11 +1749,13 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="17">
+        <v>300</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1678,11 +1774,13 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="17">
+        <v>375</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1701,11 +1799,13 @@
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="17">
+        <v>240</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1724,11 +1824,13 @@
       <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="17">
+        <v>300</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1747,9 +1849,11 @@
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="3">
-        <v>250</v>
-      </c>
+      <c r="G10" s="17">
+        <v>375</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1765,19 +1869,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="11" style="1"/>
+    <col min="8" max="8" width="50.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:15" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1799,26 +1905,32 @@
       <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1840,26 +1952,32 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="14">
+      <c r="K2" s="14">
         <v>0.3</v>
       </c>
-      <c r="J2" s="14">
+      <c r="L2" s="14">
         <v>0.39</v>
       </c>
-      <c r="K2" s="14">
+      <c r="M2" s="14">
         <v>0.2</v>
       </c>
-      <c r="L2" s="15">
+      <c r="N2" s="15">
         <v>0.1099</v>
       </c>
-      <c r="M2" s="15">
+      <c r="O2" s="15">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1873,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="10">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1881,26 +1999,32 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="14">
+      <c r="K3" s="14">
         <v>0</v>
       </c>
-      <c r="J3" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="15">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="M3" s="15">
+      <c r="O3" s="15">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1914,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1922,8 +2046,14 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="H4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -1945,14 +2075,20 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1966,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -1974,14 +2110,20 @@
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1995,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2003,14 +2145,20 @@
       <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2024,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2032,14 +2180,20 @@
       <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2053,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2061,14 +2215,20 @@
       <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2082,7 +2242,7 @@
         <v>200</v>
       </c>
       <c r="E10" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -2090,14 +2250,16 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2111,7 +2273,7 @@
         <v>200</v>
       </c>
       <c r="E11" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -2119,14 +2281,16 @@
       <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2140,7 +2304,7 @@
         <v>200</v>
       </c>
       <c r="E12" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -2148,8 +2312,10 @@
       <c r="G12" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -2163,7 +2329,7 @@
         <v>200</v>
       </c>
       <c r="E13" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
@@ -2171,8 +2337,10 @@
       <c r="G13" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2186,7 +2354,7 @@
         <v>200</v>
       </c>
       <c r="E14" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -2194,8 +2362,10 @@
       <c r="G14" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2209,7 +2379,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -2217,8 +2387,10 @@
       <c r="G15" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2232,7 +2404,7 @@
         <v>200</v>
       </c>
       <c r="E16" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -2240,8 +2412,10 @@
       <c r="G16" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2255,7 +2429,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -2263,6 +2437,8 @@
       <c r="G17" s="3">
         <v>8</v>
       </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2280,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2334,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>600</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1">
         <v>4</v>
@@ -2392,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>6</v>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="580" windowWidth="31540" windowHeight="17360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3480" yWindow="580" windowWidth="31540" windowHeight="17360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1078,7 +1078,7 @@
         <v>1002</v>
       </c>
       <c r="D3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>52</v>
@@ -1096,11 +1096,11 @@
       <c r="J3" s="4"/>
       <c r="K3" s="8">
         <f t="shared" ref="K3:K6" si="0">D3/G3</f>
-        <v>90.090090090090087</v>
+        <v>100.10010010010009</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" ref="L3:L6" si="1">D3/H3</f>
-        <v>13.235294117647058</v>
+        <v>14.705882352941176</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16">
@@ -1114,7 +1114,7 @@
         <v>1003</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>53</v>
@@ -1132,11 +1132,11 @@
       <c r="J4" s="4"/>
       <c r="K4" s="8">
         <f t="shared" si="0"/>
-        <v>100.05002501250627</v>
+        <v>105.05252626313157</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="1"/>
-        <v>15.625</v>
+        <v>16.40625</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16">
@@ -1150,7 +1150,7 @@
         <v>1004</v>
       </c>
       <c r="D5">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>51</v>
@@ -1168,11 +1168,11 @@
       <c r="J5" s="4"/>
       <c r="K5" s="8">
         <f t="shared" si="0"/>
-        <v>100.02000400080016</v>
+        <v>110.02200440088018</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="1"/>
-        <v>15.24390243902439</v>
+        <v>16.76829268292683</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16">
@@ -1871,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="580" windowWidth="31540" windowHeight="17360" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="20" windowWidth="35300" windowHeight="17920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
   <si>
     <t>商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -344,6 +344,54 @@
   </si>
   <si>
     <t>Increase treasure dropping in battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次购买赠送白色霸王龙*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次购买赠送10万金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次购买赠送绿色霸王龙*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次购买赠送紫色霸王龙*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次购买赠送蓝色霸王龙*1和蓝色震龙*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First-time-purchase: 100k gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First-time-purchase: white Tyrent x 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First-time-purchase: green Tyrent x 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First-time-purchase: purple Tyrent x 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First-time-purchase: blue Tyrent x 1, blue earthquake x 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -974,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -991,9 +1039,11 @@
     <col min="9" max="9" width="11" style="1"/>
     <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5" customWidth="1"/>
+    <col min="14" max="14" width="57.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="21">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="21">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1030,8 +1080,14 @@
       <c r="L1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16">
+      <c r="M1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1066,8 +1122,14 @@
         <f>D2/H2</f>
         <v>13.333333333333334</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16">
+      <c r="M2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1102,8 +1164,14 @@
         <f t="shared" ref="L3:L6" si="1">D3/H3</f>
         <v>14.705882352941176</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="16">
+      <c r="M3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1138,8 +1206,14 @@
         <f t="shared" si="1"/>
         <v>16.40625</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="16">
+      <c r="M4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1174,8 +1248,14 @@
         <f t="shared" si="1"/>
         <v>16.76829268292683</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16">
+      <c r="M5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1210,8 +1290,14 @@
         <f t="shared" si="1"/>
         <v>18.518518518518519</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1219,7 +1305,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1227,7 +1313,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1235,7 +1321,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1243,7 +1329,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1251,7 +1337,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1259,7 +1345,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1267,7 +1353,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1275,7 +1361,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1283,7 +1369,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="20" windowWidth="35300" windowHeight="17920" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="20" windowWidth="28720" windowHeight="15740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -299,54 +299,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战斗中增加恐龙的速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中增加恐龙的防御力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中增加恐龙的HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中增加宝物的掉率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中增加经验获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中增加恐龙的攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase dinosaurs' speed in battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase dinosaurs' attack in battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase dinosaurs' defense in battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase dinosaurs' HP in battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase experience in battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase treasure dropping in battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -392,6 +344,54 @@
   </si>
   <si>
     <t>First-time-purchase: blue Tyrent x 1, blue earthquake x 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙的20攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙20的速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙20的防御力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙15%的HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加技能15%的触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加15%经验获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase attack by 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase speed by 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase defense by 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase HP by 15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase skill trigger chance by 15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase experience 15%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1081,10 +1081,10 @@
         <v>29</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16">
@@ -1123,10 +1123,10 @@
         <v>13.333333333333334</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
@@ -1165,10 +1165,10 @@
         <v>14.705882352941176</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16">
@@ -1207,10 +1207,10 @@
         <v>16.40625</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16">
@@ -1249,10 +1249,10 @@
         <v>16.76829268292683</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16">
@@ -1291,10 +1291,10 @@
         <v>18.518518518518519</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1682,7 +1682,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2133,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2162,10 +2162,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -2197,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -2232,10 +2232,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -2267,10 +2267,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -2302,10 +2302,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="20" windowWidth="28720" windowHeight="15740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12780" yWindow="940" windowWidth="22580" windowHeight="16980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>商品类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Lv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>白</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,14 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1~4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>资源/Gem</t>
   </si>
   <si>
@@ -283,10 +271,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>随机获得一个品质的恐龙蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>随机获得一个高品质的恐龙蛋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,27 +355,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Increase attack by 20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase speed by 20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase defense by 20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase HP by 15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Increase skill trigger chance by 15%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Increase experience 15%</t>
+    <t>数量-固定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格-金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得一个恐龙蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得一个中等品质的恐龙蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get a medium quality egg by random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase attack by 80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase speed by 80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase defense by 80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase HP by 40%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase experience 40%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格-宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐龙类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +427,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -485,6 +509,95 @@
       <name val="Lucida Grande"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF8000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0080FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0080FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF00FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF8000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF408000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF408000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -518,7 +631,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -579,8 +692,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,19 +741,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="72">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -659,6 +820,12 @@
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -688,6 +855,12 @@
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1081,10 +1254,10 @@
         <v>29</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16">
@@ -1100,11 +1273,11 @@
       <c r="D2">
         <v>400</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>58</v>
+      <c r="E2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="G2" s="6">
         <v>4.99</v>
@@ -1123,10 +1296,10 @@
         <v>13.333333333333334</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
@@ -1142,11 +1315,11 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>57</v>
+      <c r="E3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="G3" s="6">
         <v>9.99</v>
@@ -1165,10 +1338,10 @@
         <v>14.705882352941176</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16">
@@ -1184,11 +1357,11 @@
       <c r="D4">
         <v>2100</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="G4" s="6">
         <v>19.989999999999998</v>
@@ -1207,10 +1380,10 @@
         <v>16.40625</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16">
@@ -1226,11 +1399,11 @@
       <c r="D5">
         <v>5500</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>50</v>
+      <c r="E5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="G5" s="6">
         <v>49.99</v>
@@ -1249,10 +1422,10 @@
         <v>16.76829268292683</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16">
@@ -1268,11 +1441,11 @@
       <c r="D6">
         <v>12000</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>55</v>
+      <c r="E6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="G6" s="6">
         <v>99.99</v>
@@ -1291,10 +1464,10 @@
         <v>18.518518518518519</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1679,21 +1852,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1"/>
+    <col min="5" max="5" width="20.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1707,16 +1882,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1729,19 +1907,22 @@
       <c r="D2" s="9">
         <v>0.3</v>
       </c>
-      <c r="E2" s="10">
-        <v>250</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="15">
+        <v>20000</v>
+      </c>
+      <c r="F2" s="10">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="17">
+      <c r="H2" s="14">
         <v>120</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1754,19 +1935,22 @@
       <c r="D3" s="9">
         <v>0.5</v>
       </c>
-      <c r="E3" s="10">
-        <v>340</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="15">
+        <v>150000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="17">
+      <c r="H3" s="14">
         <v>150</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1779,19 +1963,22 @@
       <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
-        <v>600</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="15">
+        <v>400000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="17">
+      <c r="H4" s="14">
         <v>187.5</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1804,19 +1991,22 @@
       <c r="D5" s="9">
         <v>0.3</v>
       </c>
-      <c r="E5" s="10">
-        <v>250</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="E5" s="15">
+        <v>20000</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
         <v>240</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1829,19 +2019,22 @@
       <c r="D6" s="9">
         <v>0.5</v>
       </c>
-      <c r="E6" s="10">
-        <v>340</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="E6" s="15">
+        <v>150000</v>
+      </c>
+      <c r="F6" s="10">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
         <v>300</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1854,19 +2047,22 @@
       <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="10">
-        <v>600</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="E7" s="15">
+        <v>400000</v>
+      </c>
+      <c r="F7" s="10">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
         <v>375</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1879,19 +2075,22 @@
       <c r="D8" s="9">
         <v>0.3</v>
       </c>
-      <c r="E8" s="10">
-        <v>250</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="15">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="H8" s="14">
         <v>240</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1904,19 +2103,22 @@
       <c r="D9" s="9">
         <v>0.5</v>
       </c>
-      <c r="E9" s="10">
-        <v>340</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="15">
+        <v>150000</v>
+      </c>
+      <c r="F9" s="10">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="17">
+      <c r="H9" s="14">
         <v>300</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1929,17 +2131,20 @@
       <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="10">
-        <v>600</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="15">
+        <v>400000</v>
+      </c>
+      <c r="F10" s="10">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="17">
+      <c r="H10" s="14">
         <v>375</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1955,115 +2160,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11" style="1"/>
-    <col min="8" max="8" width="50.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="59.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="1"/>
+    <col min="9" max="9" width="50.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.1640625" style="1" customWidth="1"/>
+    <col min="11" max="15" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="1" customWidth="1"/>
+    <col min="17" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="Q1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>88</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0.39</v>
-      </c>
-      <c r="M2" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="N2" s="15">
-        <v>0.1099</v>
-      </c>
-      <c r="O2" s="15">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="U2" s="1">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1">
+        <v>7</v>
+      </c>
+      <c r="X2" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2071,110 +2300,239 @@
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
-        <v>188</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
+        <v>50000</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="14">
+        <v>89</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0.39</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0.109</v>
+      </c>
+      <c r="O3" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="P3" s="27">
+        <f>SUM(K3:O3)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="U3" s="16">
         <v>0</v>
       </c>
-      <c r="L3" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="15">
-        <v>9.9900000000000003E-2</v>
-      </c>
-      <c r="O3" s="15">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="V3" s="16">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16">
+        <f>SUM(Q3:Y3)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>5001</v>
+        <v>4002</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
+        <v>100000</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>84</v>
+      <c r="H4" s="1">
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="J4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="23">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O4" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="P4" s="27">
+        <f t="shared" ref="P4:P5" si="0">SUM(K4:O4)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0</v>
+      </c>
+      <c r="R4" s="16">
+        <v>0</v>
+      </c>
+      <c r="S4" s="16">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0.182</v>
+      </c>
+      <c r="V4" s="16">
+        <v>0.152</v>
+      </c>
+      <c r="W4" s="16">
+        <v>0.121</v>
+      </c>
+      <c r="X4" s="16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="16">
+        <f t="shared" ref="Z4:Z5" si="1">SUM(Q4:Y4)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>5002</v>
+        <v>4003</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="P5" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0.215</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="X5" s="16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Z5" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2540,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2190,26 +2548,21 @@
       <c r="E6" s="10">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>86</v>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2217,7 +2570,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2225,26 +2578,27 @@
       <c r="E7" s="10">
         <v>10</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="10"/>
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>87</v>
+      <c r="H7" s="1">
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2252,7 +2606,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2260,26 +2614,27 @@
       <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="10"/>
+      <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>88</v>
+      <c r="H8" s="1">
+        <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2287,7 +2642,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2295,88 +2650,99 @@
       <c r="E9" s="10">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="10"/>
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" s="1">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>89</v>
+      <c r="H9" s="1">
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5005</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
-        <v>6001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>200</v>
-      </c>
-      <c r="E10" s="10">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6002</v>
-      </c>
-      <c r="D11" s="3">
-        <v>200</v>
+      <c r="I10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
       <c r="E11" s="10">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2750,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="D12" s="3">
         <v>200</v>
@@ -2392,16 +2758,23 @@
       <c r="E12" s="10">
         <v>50</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="10"/>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="J12" s="3"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="D13" s="3">
         <v>200</v>
@@ -2417,16 +2790,23 @@
       <c r="E13" s="10">
         <v>50</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="10"/>
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="3">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="J13" s="3"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2434,7 +2814,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="3">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -2442,16 +2822,17 @@
       <c r="E14" s="10">
         <v>50</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="10"/>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2459,7 +2840,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="D15" s="3">
         <v>200</v>
@@ -2467,16 +2848,17 @@
       <c r="E15" s="10">
         <v>50</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="10"/>
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2484,7 +2866,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>6007</v>
+        <v>6005</v>
       </c>
       <c r="D16" s="3">
         <v>200</v>
@@ -2492,16 +2874,17 @@
       <c r="E16" s="10">
         <v>50</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="10"/>
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="3">
-        <v>7</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2509,7 +2892,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="D17" s="3">
         <v>200</v>
@@ -2517,19 +2900,89 @@
       <c r="E17" s="10">
         <v>50</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="10"/>
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6007</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="10">
+        <v>50</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6008</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="10">
+        <v>50</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
         <v>8</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2576,10 +3029,10 @@
         <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2605,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2634,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2663,10 +3116,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2692,10 +3145,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2721,10 +3174,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="940" windowWidth="22580" windowHeight="16980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3220" yWindow="480" windowWidth="29120" windowHeight="19440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -749,12 +749,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,6 +781,12 @@
     </xf>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="72">
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1271,7 +1271,7 @@
         <v>1001</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>56</v>
@@ -1289,11 +1289,11 @@
       <c r="J2" s="4"/>
       <c r="K2" s="8">
         <f>D2/G2</f>
-        <v>80.160320641282567</v>
+        <v>120.24048096192384</v>
       </c>
       <c r="L2" s="8">
         <f>D2/H2</f>
-        <v>13.333333333333334</v>
+        <v>20</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>71</v>
@@ -1313,7 +1313,7 @@
         <v>1002</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>49</v>
@@ -1331,11 +1331,11 @@
       <c r="J3" s="4"/>
       <c r="K3" s="8">
         <f t="shared" ref="K3:K6" si="0">D3/G3</f>
-        <v>100.10010010010009</v>
+        <v>150.15015015015015</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" ref="L3:L6" si="1">D3/H3</f>
-        <v>14.705882352941176</v>
+        <v>22.058823529411764</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>70</v>
@@ -1355,7 +1355,7 @@
         <v>1003</v>
       </c>
       <c r="D4">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>50</v>
@@ -1373,11 +1373,11 @@
       <c r="J4" s="4"/>
       <c r="K4" s="8">
         <f t="shared" si="0"/>
-        <v>105.05252626313157</v>
+        <v>155.07753876938472</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="1"/>
-        <v>16.40625</v>
+        <v>24.21875</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>72</v>
@@ -1397,7 +1397,7 @@
         <v>1004</v>
       </c>
       <c r="D5">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>48</v>
@@ -1415,11 +1415,11 @@
       <c r="J5" s="4"/>
       <c r="K5" s="8">
         <f t="shared" si="0"/>
-        <v>110.02200440088018</v>
+        <v>160.03200640128026</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="1"/>
-        <v>16.76829268292683</v>
+        <v>24.390243902439025</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>74</v>
@@ -1439,7 +1439,7 @@
         <v>1005</v>
       </c>
       <c r="D6">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>51</v>
@@ -1457,11 +1457,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="8">
         <f t="shared" si="0"/>
-        <v>120.01200120012003</v>
+        <v>180.01800180018003</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="1"/>
-        <v>18.518518518518519</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>73</v>
@@ -2162,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2183,79 +2183,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="Q1" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="28" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="P2" s="11" t="s">
@@ -2321,22 +2321,22 @@
       <c r="J3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <v>0.3</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <v>0.39</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="20">
         <v>0.2</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="21">
         <v>0.109</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="22">
         <v>1E-3</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="25">
         <f>SUM(K3:O3)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2401,22 +2401,22 @@
       <c r="J4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <v>0</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="24">
         <v>0.4</v>
       </c>
-      <c r="M4" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="23">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="O4" s="24">
+      <c r="M4" s="20">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N4" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="O4" s="22">
         <v>1E-3</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="25">
         <f t="shared" ref="P4:P5" si="0">SUM(K4:O4)</f>
         <v>1</v>
       </c>
@@ -2481,22 +2481,22 @@
       <c r="J5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <v>0</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="24">
         <v>0</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <v>0.9</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="21">
         <v>0.09</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="22">
         <v>0.01</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2507,25 +2507,25 @@
         <v>0</v>
       </c>
       <c r="S5" s="16">
-        <v>0.215</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="T5" s="16">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="U5" s="16">
-        <v>0.16700000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="V5" s="16">
-        <v>0.14299999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="W5" s="16">
-        <v>0.11899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="X5" s="16">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Y5" s="16">
-        <v>7.0999999999999994E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="16">
         <f t="shared" si="1"/>
@@ -2967,11 +2967,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:O1"/>
     <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2979,6 +2974,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="480" windowWidth="29120" windowHeight="19440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -331,34 +331,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战斗中增加恐龙的20攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中增加恐龙20的速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中增加恐龙20的防御力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中增加恐龙15%的HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中增加技能15%的触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗中增加15%经验获得</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Increase skill trigger chance by 15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数量-固定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -379,26 +355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Increase attack by 80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase speed by 80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase defense by 80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase HP by 40%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase experience 40%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>价格-宝石</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -416,6 +372,50 @@
   </si>
   <si>
     <t>SUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙的40攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙40的防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙40的速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加恐龙30%的HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中增加技能30%的触发几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase attack by 40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase defense by 40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase speed by 40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase HP by 30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase skill trigger chance by 30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase experience 15%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +782,10 @@
     <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2162,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2183,66 +2183,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="Q1" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="26" t="s">
         <v>35</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>39</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>66</v>
@@ -2396,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K4" s="27">
         <v>0</v>
@@ -2546,20 +2546,20 @@
         <v>1</v>
       </c>
       <c r="E6" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="1">
         <v>3</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -2576,20 +2576,20 @@
         <v>1</v>
       </c>
       <c r="E7" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2612,20 +2612,20 @@
         <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -2648,20 +2648,20 @@
         <v>1</v>
       </c>
       <c r="E9" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -2684,20 +2684,20 @@
         <v>1</v>
       </c>
       <c r="E10" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -2720,20 +2720,20 @@
         <v>1</v>
       </c>
       <c r="E11" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="1">
         <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2996,7 +2996,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -2163,7 +2163,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2543,7 +2543,7 @@
         <v>5001</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="10">
         <v>50</v>
@@ -2573,7 +2573,7 @@
         <v>5002</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10">
         <v>50</v>
@@ -2609,7 +2609,7 @@
         <v>5003</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="10">
         <v>50</v>
@@ -2645,7 +2645,7 @@
         <v>5004</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="10">
         <v>50</v>
@@ -2681,7 +2681,7 @@
         <v>5005</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="10">
         <v>50</v>
@@ -2717,7 +2717,7 @@
         <v>5006</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10">
         <v>50</v>

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2940" yWindow="0" windowWidth="29620" windowHeight="17200" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -255,14 +255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每日登录即获得一张抽奖券；保护时间加倍；持续一月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 FREE lottery per day, double protection time for a month</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中文描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -416,6 +408,14 @@
   </si>
   <si>
     <t>Increase experience 15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登录额外获得一张抽奖券；保护时间加倍；额外赠送一次攻打巢穴的次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra FREE lottery per day, double protection time; extra chance to attack cave</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1254,10 +1254,10 @@
         <v>29</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16">
@@ -1296,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
@@ -1338,10 +1338,10 @@
         <v>22.058823529411764</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16">
@@ -1380,10 +1380,10 @@
         <v>24.21875</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16">
@@ -1422,10 +1422,10 @@
         <v>24.390243902439025</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16">
@@ -1464,10 +1464,10 @@
         <v>27.777777777777779</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2162,7 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>12</v>
@@ -2208,20 +2208,20 @@
         <v>13</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
       <c r="Q1" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
@@ -2259,7 +2259,7 @@
         <v>39</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2316,10 +2316,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K3" s="27">
         <v>0.3</v>
@@ -2396,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4" s="27">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="K5" s="27">
         <v>0</v>
@@ -2556,10 +2556,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -2586,10 +2586,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2622,10 +2622,10 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -2658,10 +2658,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -2694,10 +2694,10 @@
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -2730,10 +2730,10 @@
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2995,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3058,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9">

--- a/const/shopping_list.xlsx
+++ b/const/shopping_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="0" windowWidth="29620" windowHeight="17200" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="3880" yWindow="0" windowWidth="29620" windowHeight="17200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="宝石" sheetId="1" r:id="rId1"/>
@@ -204,21 +204,6 @@
     <t>DINO_STYLE_GEM_USD_4999</t>
   </si>
   <si>
-    <t>com.dinosaur.gems.usd4999</t>
-  </si>
-  <si>
-    <t>com.dinosaur.gems.usd999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dinosaur.gems.usd1999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dinosaur.gems.usd9999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DINO_STYLE_GEM_USD_9999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -235,10 +220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com.dinosaur.gems.usd499</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>抽取更好的奖品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -416,6 +397,25 @@
   </si>
   <si>
     <t>Extra FREE lottery per day, double protection time; extra chance to attack cave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle2.gems.us499</t>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle2.gems.us999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle2.gems.us1999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle2.gems.us4999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gaofei.dinostyle2.gems.us9999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1254,10 +1254,10 @@
         <v>29</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16">
@@ -1274,10 +1274,10 @@
         <v>600</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" s="6">
         <v>4.99</v>
@@ -1296,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
@@ -1316,10 +1316,10 @@
         <v>1500</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G3" s="6">
         <v>9.99</v>
@@ -1338,10 +1338,10 @@
         <v>22.058823529411764</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16">
@@ -1358,10 +1358,10 @@
         <v>3100</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G4" s="6">
         <v>19.989999999999998</v>
@@ -1380,10 +1380,10 @@
         <v>24.21875</v>
       </c>
       <c r="M4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16">
@@ -1400,7 +1400,7 @@
         <v>8000</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>47</v>
@@ -1422,10 +1422,10 @@
         <v>24.390243902439025</v>
       </c>
       <c r="M5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16">
@@ -1442,10 +1442,10 @@
         <v>18000</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6" s="6">
         <v>99.99</v>
@@ -1464,10 +1464,10 @@
         <v>27.777777777777779</v>
       </c>
       <c r="M6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>12</v>
@@ -2208,20 +2208,20 @@
         <v>13</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
       <c r="Q1" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
@@ -2259,7 +2259,7 @@
         <v>39</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2316,10 +2316,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K3" s="27">
         <v>0.3</v>
@@ -2396,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K4" s="27">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K5" s="27">
         <v>0</v>
@@ -2556,10 +2556,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -2586,10 +2586,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2622,10 +2622,10 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -2658,10 +2658,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -2694,10 +2694,10 @@
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -2730,10 +2730,10 @@
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2995,7 +2995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -3058,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3145,10 +3145,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3174,10 +3174,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9">
